--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7DCDD-2832-4716-965C-37DEF89C9386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB27ABD-1C33-41DD-8FF3-7866E421E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -59,33 +59,66 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>SX-VERDI</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>FASCISTI</t>
-  </si>
-  <si>
     <t>ALTRI</t>
   </si>
   <si>
+    <t>LISTA</t>
+  </si>
+  <si>
+    <t>COALIZIONE</t>
+  </si>
+  <si>
+    <t>SINISTRA ITALIANA</t>
+  </si>
+  <si>
+    <t>EUROPA VERDE</t>
+  </si>
+  <si>
+    <t>PARTITO DEMOCRATICO</t>
+  </si>
+  <si>
+    <t>+EUROPA</t>
+  </si>
+  <si>
+    <t>MOVIMENTO 5 STELLE</t>
+  </si>
+  <si>
+    <t>ITALIA VIVA</t>
+  </si>
+  <si>
+    <t>AZIONE</t>
+  </si>
+  <si>
+    <t>PERCENTUALE</t>
+  </si>
+  <si>
     <t>astensione</t>
-  </si>
-  <si>
-    <t>LISTA</t>
-  </si>
-  <si>
-    <t>COALIZIONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,15 +143,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,102 +432,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="C11" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -499,5 +593,6 @@
     <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB27ABD-1C33-41DD-8FF3-7866E421E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C055BC-97B1-4C81-AEB7-5D9423525854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -93,6 +93,39 @@
   </si>
   <si>
     <t>astensione</t>
+  </si>
+  <si>
+    <t>COLORE</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#FFA500</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#ff268f</t>
+  </si>
+  <si>
+    <t>#26ffba</t>
+  </si>
+  <si>
+    <t>#2945e3</t>
+  </si>
+  <si>
+    <t>#00d5ff</t>
+  </si>
+  <si>
+    <t>#001f9c</t>
+  </si>
+  <si>
+    <t>#3086db</t>
   </si>
 </sst>
 </file>
@@ -432,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +478,7 @@
     <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -455,8 +488,11 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -466,8 +502,11 @@
       <c r="C2" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -477,8 +516,11 @@
       <c r="C3" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -488,8 +530,11 @@
       <c r="C4" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -499,8 +544,11 @@
       <c r="C5" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -510,8 +558,11 @@
       <c r="C6" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -521,8 +572,11 @@
       <c r="C7" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -532,8 +586,11 @@
       <c r="C8" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -543,8 +600,11 @@
       <c r="C9" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -554,8 +614,11 @@
       <c r="C10" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -565,8 +628,11 @@
       <c r="C11" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -577,7 +643,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>

--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C055BC-97B1-4C81-AEB7-5D9423525854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE18A4C-D21D-48F5-9548-E5FF2D4EB54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>0.02</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -584,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>0.02</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -612,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -651,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE18A4C-D21D-48F5-9548-E5FF2D4EB54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4A7EB-9DB6-4A12-9282-B250041F1C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="europee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="44">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -59,33 +60,18 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>ALTRI</t>
-  </si>
-  <si>
     <t>LISTA</t>
   </si>
   <si>
     <t>COALIZIONE</t>
   </si>
   <si>
-    <t>SINISTRA ITALIANA</t>
-  </si>
-  <si>
-    <t>EUROPA VERDE</t>
-  </si>
-  <si>
     <t>PARTITO DEMOCRATICO</t>
   </si>
   <si>
-    <t>+EUROPA</t>
-  </si>
-  <si>
     <t>MOVIMENTO 5 STELLE</t>
   </si>
   <si>
-    <t>ITALIA VIVA</t>
-  </si>
-  <si>
     <t>AZIONE</t>
   </si>
   <si>
@@ -98,9 +84,6 @@
     <t>COLORE</t>
   </si>
   <si>
-    <t>#FF0000</t>
-  </si>
-  <si>
     <t>#00FF00</t>
   </si>
   <si>
@@ -113,9 +96,6 @@
     <t>#ff268f</t>
   </si>
   <si>
-    <t>#26ffba</t>
-  </si>
-  <si>
     <t>#2945e3</t>
   </si>
   <si>
@@ -126,6 +106,69 @@
   </si>
   <si>
     <t>#3086db</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
+  <si>
+    <t>STATI UNITI D'EUROPA</t>
+  </si>
+  <si>
+    <t>PIACENZA</t>
+  </si>
+  <si>
+    <t>PACE TERRA DIGNITA'</t>
+  </si>
+  <si>
+    <t>LIBERTA'</t>
+  </si>
+  <si>
+    <t>ALTERNATIVA POPOLARE</t>
+  </si>
+  <si>
+    <t>SVP</t>
+  </si>
+  <si>
+    <t>PTD</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>PARMA</t>
+  </si>
+  <si>
+    <t>REGGIO NELL'EMILIA</t>
+  </si>
+  <si>
+    <t>MODENA</t>
+  </si>
+  <si>
+    <t>BOLOGNA</t>
+  </si>
+  <si>
+    <t>FERRARA</t>
+  </si>
+  <si>
+    <t>RAVENNA</t>
+  </si>
+  <si>
+    <t>FORLI'-CESENA</t>
+  </si>
+  <si>
+    <t>RIMINI</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>VOTI_LISTA</t>
+  </si>
+  <si>
+    <t>ALLEANZA VERDI E SINISTRA</t>
   </si>
 </sst>
 </file>
@@ -180,10 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -465,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,16 +526,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>0.03</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,83 +557,83 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.28000000000000003</v>
+        <v>7.17E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
-        <v>0.03</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>0.1</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,70 +641,1297 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>0.06</v>
+        <v>0.2802</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>0.02</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
         <v>0.4</v>
       </c>
     </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D946341-E553-4B23-B8CF-4D30076FCFE1}">
+  <dimension ref="A1:D109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>28024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <v>54552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <v>55382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>95853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>15476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>19612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>7587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>14256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>57374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>126028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>18695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>22090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>19076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>20024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>82348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>189448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>39924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>34472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>15604</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>14835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>21643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>115315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>13085</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>47872</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>7651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67">
+        <v>11404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68">
+        <v>14027</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69">
+        <v>55029</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>64514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75">
+        <v>9929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76">
+        <v>11896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86">
+        <v>65775</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87">
+        <v>10163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88">
+        <v>12539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91">
+        <v>12027</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92">
+        <v>10769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93">
+        <v>54706</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99">
+        <v>8632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100">
+        <v>10448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103">
+        <v>9637</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104">
+        <v>9253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>46676</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4A7EB-9DB6-4A12-9282-B250041F1C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923C967-4EBF-488F-8394-0F5081C10B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="41">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -75,12 +75,6 @@
     <t>AZIONE</t>
   </si>
   <si>
-    <t>PERCENTUALE</t>
-  </si>
-  <si>
-    <t>astensione</t>
-  </si>
-  <si>
     <t>COLORE</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
   </si>
   <si>
     <t>#3086db</t>
-  </si>
-  <si>
-    <t>AVS</t>
   </si>
   <si>
     <t>STATI UNITI D'EUROPA</t>
@@ -223,10 +214,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -511,202 +501,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>6.5299999999999997E-2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>7.17E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>6.1100000000000002E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>6.4799999999999996E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.2802</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2">
-        <v>2.3199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
@@ -721,14 +660,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D946341-E553-4B23-B8CF-4D30076FCFE1}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="4"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,31 +675,31 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
         <v>28024</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
         <v>6314</v>
       </c>
     </row>
@@ -768,21 +707,21 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
         <v>7623</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
         <v>2979</v>
       </c>
     </row>
@@ -790,10 +729,10 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
         <v>3655</v>
       </c>
     </row>
@@ -801,10 +740,10 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
         <v>10522</v>
       </c>
     </row>
@@ -812,10 +751,10 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
         <v>12080</v>
       </c>
     </row>
@@ -823,54 +762,54 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
         <v>43152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
         <v>2405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
         <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
         <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
         <v>235</v>
       </c>
     </row>
@@ -878,21 +817,21 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
         <v>54552</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
         <v>12792</v>
       </c>
     </row>
@@ -900,21 +839,21 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
         <v>13200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
         <v>6263</v>
       </c>
     </row>
@@ -922,10 +861,10 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3">
         <v>8517</v>
       </c>
     </row>
@@ -933,10 +872,10 @@
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
         <v>13198</v>
       </c>
     </row>
@@ -944,10 +883,10 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
         <v>16296</v>
       </c>
     </row>
@@ -955,54 +894,54 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3">
         <v>55382</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3">
         <v>4650</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
         <v>1115</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3">
         <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
         <v>276</v>
       </c>
     </row>
@@ -1011,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>95853</v>
@@ -1019,10 +958,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>15476</v>
@@ -1033,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>19612</v>
@@ -1041,10 +980,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>6804</v>
@@ -1055,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>7587</v>
@@ -1066,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>14256</v>
@@ -1077,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>14460</v>
@@ -1088,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>57374</v>
@@ -1096,10 +1035,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>5447</v>
@@ -1107,10 +1046,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>1693</v>
@@ -1118,10 +1057,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>798</v>
@@ -1129,10 +1068,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>406</v>
@@ -1143,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>126028</v>
@@ -1151,10 +1090,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>18695</v>
@@ -1165,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>22090</v>
@@ -1173,10 +1112,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>8389</v>
@@ -1187,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C42">
         <v>11159</v>
@@ -1198,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>19076</v>
@@ -1209,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>20024</v>
@@ -1220,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>82348</v>
@@ -1228,10 +1167,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>6105</v>
@@ -1239,10 +1178,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>1917</v>
@@ -1250,10 +1189,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>996</v>
@@ -1261,10 +1200,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>378</v>
@@ -1275,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>189448</v>
@@ -1283,10 +1222,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <v>39924</v>
@@ -1297,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>34472</v>
@@ -1305,10 +1244,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>15604</v>
@@ -1319,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C54">
         <v>14835</v>
@@ -1330,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C55">
         <v>21643</v>
@@ -1341,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C56">
         <v>21267</v>
@@ -1352,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C57">
         <v>115315</v>
@@ -1360,10 +1299,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C58">
         <v>13085</v>
@@ -1371,10 +1310,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C59">
         <v>2946</v>
@@ -1382,10 +1321,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C60">
         <v>1289</v>
@@ -1393,10 +1332,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -1407,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C62">
         <v>47872</v>
@@ -1415,10 +1354,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>7651</v>
@@ -1429,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>10403</v>
@@ -1437,10 +1376,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>3816</v>
@@ -1451,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>3784</v>
@@ -1462,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>11404</v>
@@ -1473,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C68">
         <v>14027</v>
@@ -1484,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>55029</v>
@@ -1492,10 +1431,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>2943</v>
@@ -1503,10 +1442,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>1134</v>
@@ -1514,10 +1453,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C72">
         <v>438</v>
@@ -1525,10 +1464,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C73">
         <v>220</v>
@@ -1539,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>64514</v>
@@ -1547,10 +1486,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>9929</v>
@@ -1561,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>11896</v>
@@ -1569,10 +1508,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>5351</v>
@@ -1583,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>5397</v>
@@ -1594,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>9416</v>
@@ -1605,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>10403</v>
@@ -1616,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>45999</v>
@@ -1624,10 +1563,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>4236</v>
@@ -1635,10 +1574,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>1270</v>
@@ -1646,10 +1585,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>592</v>
@@ -1657,10 +1596,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>260</v>
@@ -1671,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C86">
         <v>65775</v>
@@ -1679,10 +1618,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C87">
         <v>10163</v>
@@ -1693,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C88">
         <v>12539</v>
@@ -1701,10 +1640,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C89">
         <v>5236</v>
@@ -1715,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C90">
         <v>4800</v>
@@ -1726,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C91">
         <v>12027</v>
@@ -1737,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C92">
         <v>10769</v>
@@ -1748,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C93">
         <v>54706</v>
@@ -1756,10 +1695,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C94">
         <v>3597</v>
@@ -1767,10 +1706,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C95">
         <v>1294</v>
@@ -1778,10 +1717,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C96">
         <v>603</v>
@@ -1789,10 +1728,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C97">
         <v>173</v>
@@ -1803,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C98">
         <v>44473</v>
@@ -1811,10 +1750,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C99">
         <v>8632</v>
@@ -1825,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C100">
         <v>10448</v>
@@ -1833,10 +1772,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C101">
         <v>4256</v>
@@ -1847,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C102">
         <v>3372</v>
@@ -1858,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C103">
         <v>9637</v>
@@ -1869,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C104">
         <v>9253</v>
@@ -1880,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C105">
         <v>46676</v>
@@ -1888,10 +1827,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C106">
         <v>3534</v>
@@ -1899,10 +1838,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C107">
         <v>1055</v>
@@ -1910,10 +1849,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C108">
         <v>437</v>
@@ -1921,10 +1860,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C109">
         <v>167</v>

--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923C967-4EBF-488F-8394-0F5081C10B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E9C1C4-F82B-4E47-9AC2-E1C65AA3E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="39">
   <si>
     <t>SINISTRA</t>
   </si>
   <si>
-    <t>M5S</t>
-  </si>
-  <si>
     <t>DESTRA</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>LEGA</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
   </si>
   <si>
     <t>LISTA</t>
@@ -504,7 +498,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,13 +509,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,108 +534,108 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
@@ -672,21 +666,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>28024</v>
@@ -694,10 +688,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>6314</v>
@@ -705,10 +699,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>7623</v>
@@ -716,10 +710,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>2979</v>
@@ -727,10 +721,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>3655</v>
@@ -738,10 +732,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>10522</v>
@@ -749,10 +743,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>12080</v>
@@ -760,10 +754,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>43152</v>
@@ -771,10 +765,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>2405</v>
@@ -782,10 +776,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>822</v>
@@ -793,10 +787,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>557</v>
@@ -804,10 +798,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>235</v>
@@ -815,10 +809,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>54552</v>
@@ -826,10 +820,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
         <v>12792</v>
@@ -837,10 +831,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>13200</v>
@@ -848,10 +842,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>6263</v>
@@ -859,10 +853,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>8517</v>
@@ -870,10 +864,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
         <v>13198</v>
@@ -881,10 +875,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
         <v>16296</v>
@@ -892,10 +886,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
         <v>55382</v>
@@ -903,10 +897,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3">
         <v>4650</v>
@@ -914,10 +908,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <v>1115</v>
@@ -925,10 +919,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3">
         <v>557</v>
@@ -936,10 +930,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
         <v>276</v>
@@ -947,10 +941,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>95853</v>
@@ -958,10 +952,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>15476</v>
@@ -969,10 +963,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>19612</v>
@@ -980,10 +974,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>6804</v>
@@ -991,10 +985,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>7587</v>
@@ -1002,10 +996,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>14256</v>
@@ -1013,10 +1007,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>14460</v>
@@ -1024,10 +1018,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>57374</v>
@@ -1035,10 +1029,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>5447</v>
@@ -1046,10 +1040,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>1693</v>
@@ -1057,10 +1051,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>798</v>
@@ -1068,10 +1062,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>406</v>
@@ -1079,10 +1073,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>126028</v>
@@ -1090,10 +1084,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39">
         <v>18695</v>
@@ -1101,10 +1095,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>22090</v>
@@ -1112,10 +1106,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>8389</v>
@@ -1123,10 +1117,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>11159</v>
@@ -1134,10 +1128,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>19076</v>
@@ -1145,10 +1139,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>20024</v>
@@ -1156,10 +1150,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>82348</v>
@@ -1167,10 +1161,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>6105</v>
@@ -1178,10 +1172,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>1917</v>
@@ -1189,10 +1183,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48">
         <v>996</v>
@@ -1200,10 +1194,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>378</v>
@@ -1211,10 +1205,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>189448</v>
@@ -1222,10 +1216,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>39924</v>
@@ -1233,10 +1227,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>34472</v>
@@ -1244,10 +1238,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>15604</v>
@@ -1255,10 +1249,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>14835</v>
@@ -1266,10 +1260,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>21643</v>
@@ -1277,10 +1271,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>21267</v>
@@ -1288,10 +1282,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>115315</v>
@@ -1299,10 +1293,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>13085</v>
@@ -1310,10 +1304,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>2946</v>
@@ -1321,10 +1315,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>1289</v>
@@ -1332,10 +1326,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -1343,10 +1337,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>47872</v>
@@ -1354,10 +1348,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>7651</v>
@@ -1365,10 +1359,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>10403</v>
@@ -1376,10 +1370,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>3816</v>
@@ -1387,10 +1381,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>3784</v>
@@ -1398,10 +1392,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>11404</v>
@@ -1409,10 +1403,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>14027</v>
@@ -1420,10 +1414,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <v>55029</v>
@@ -1431,10 +1425,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>2943</v>
@@ -1442,10 +1436,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>1134</v>
@@ -1453,10 +1447,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72">
         <v>438</v>
@@ -1464,10 +1458,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73">
         <v>220</v>
@@ -1475,10 +1469,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74">
         <v>64514</v>
@@ -1486,10 +1480,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75">
         <v>9929</v>
@@ -1497,10 +1491,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>11896</v>
@@ -1508,10 +1502,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C77">
         <v>5351</v>
@@ -1519,10 +1513,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C78">
         <v>5397</v>
@@ -1530,10 +1524,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C79">
         <v>9416</v>
@@ -1541,10 +1535,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C80">
         <v>10403</v>
@@ -1552,10 +1546,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>45999</v>
@@ -1563,10 +1557,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C82">
         <v>4236</v>
@@ -1574,10 +1568,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83">
         <v>1270</v>
@@ -1585,10 +1579,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84">
         <v>592</v>
@@ -1596,10 +1590,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85">
         <v>260</v>
@@ -1607,10 +1601,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C86">
         <v>65775</v>
@@ -1618,10 +1612,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C87">
         <v>10163</v>
@@ -1629,10 +1623,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C88">
         <v>12539</v>
@@ -1640,10 +1634,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <v>5236</v>
@@ -1651,10 +1645,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90">
         <v>4800</v>
@@ -1662,10 +1656,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>12027</v>
@@ -1673,10 +1667,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <v>10769</v>
@@ -1684,10 +1678,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <v>54706</v>
@@ -1695,10 +1689,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>3597</v>
@@ -1706,10 +1700,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C95">
         <v>1294</v>
@@ -1717,10 +1711,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>603</v>
@@ -1728,10 +1722,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C97">
         <v>173</v>
@@ -1739,10 +1733,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>44473</v>
@@ -1750,10 +1744,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>8632</v>
@@ -1761,10 +1755,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>10448</v>
@@ -1772,10 +1766,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>4256</v>
@@ -1783,10 +1777,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>3372</v>
@@ -1794,10 +1788,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>9637</v>
@@ -1805,10 +1799,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>9253</v>
@@ -1816,10 +1810,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>46676</v>
@@ -1827,10 +1821,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>3534</v>
@@ -1838,10 +1832,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>1055</v>
@@ -1849,10 +1843,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>437</v>
@@ -1860,10 +1854,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>167</v>

--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E9C1C4-F82B-4E47-9AC2-E1C65AA3E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4B9962-CBE3-4D36-A096-C8EB7D5DEDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="41">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>ALLEANZA VERDI E SINISTRA</t>
+  </si>
+  <si>
+    <t>M5S</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
   </si>
 </sst>
 </file>
@@ -497,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +548,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -553,7 +559,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -564,7 +570,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -654,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D946341-E553-4B23-B8CF-4D30076FCFE1}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4B9962-CBE3-4D36-A096-C8EB7D5DEDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE17698-6041-46B9-A416-6D9790749080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="42">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -156,10 +156,13 @@
     <t>ALLEANZA VERDI E SINISTRA</t>
   </si>
   <si>
-    <t>M5S</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
+    <t>DE PASCALE</t>
+  </si>
+  <si>
+    <t>#DDA530</t>
+  </si>
+  <si>
+    <t>ALLEANZA VERDI SINISTRA</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,54 +543,54 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,50 +609,61 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -660,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D946341-E553-4B23-B8CF-4D30076FCFE1}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE17698-6041-46B9-A416-6D9790749080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492F2B7-E217-4AFB-A2D2-64BE8B2AB322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="europee" sheetId="2" r:id="rId2"/>
+    <sheet name="liste_europee" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="42">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -506,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,4 +1888,126 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7545EAE8-68D8-420C-A1A7-4F763ECC112D}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE17698-6041-46B9-A416-6D9790749080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A21D5-DBCF-4FD3-A373-A732762B9C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="europee" sheetId="2" r:id="rId2"/>
+    <sheet name="sondaggi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="46">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -81,9 +82,6 @@
     <t>#FFFF00</t>
   </si>
   <si>
-    <t>#ff268f</t>
-  </si>
-  <si>
     <t>#2945e3</t>
   </si>
   <si>
@@ -163,6 +161,21 @@
   </si>
   <si>
     <t>ALLEANZA VERDI SINISTRA</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>SONDAGGIO</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>PERCENTUALE</t>
+  </si>
+  <si>
+    <t>Nicola</t>
   </si>
 </sst>
 </file>
@@ -217,12 +230,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -504,9 +520,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -543,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -576,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -584,10 +600,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -598,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -609,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -617,13 +633,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,26 +657,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
-    <sortCondition ref="A2:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -689,10 +694,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>28024</v>
@@ -708,10 +713,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>6314</v>
@@ -722,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>7623</v>
@@ -730,10 +735,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>2979</v>
@@ -744,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3655</v>
@@ -755,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>10522</v>
@@ -766,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>12080</v>
@@ -777,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>43152</v>
@@ -785,10 +790,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>2405</v>
@@ -796,10 +801,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>822</v>
@@ -807,10 +812,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>557</v>
@@ -818,10 +823,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>235</v>
@@ -832,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>54552</v>
@@ -840,10 +845,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3">
         <v>12792</v>
@@ -854,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3">
         <v>13200</v>
@@ -862,10 +867,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3">
         <v>6263</v>
@@ -876,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
         <v>8517</v>
@@ -887,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
         <v>13198</v>
@@ -898,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3">
         <v>16296</v>
@@ -909,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3">
         <v>55382</v>
@@ -917,10 +922,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <v>4650</v>
@@ -928,10 +933,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3">
         <v>1115</v>
@@ -939,10 +944,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3">
         <v>557</v>
@@ -950,10 +955,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3">
         <v>276</v>
@@ -964,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>95853</v>
@@ -972,10 +977,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>15476</v>
@@ -986,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>19612</v>
@@ -994,10 +999,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>6804</v>
@@ -1008,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>7587</v>
@@ -1019,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>14256</v>
@@ -1030,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>14460</v>
@@ -1041,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>57374</v>
@@ -1049,10 +1054,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>5447</v>
@@ -1060,10 +1065,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>1693</v>
@@ -1071,10 +1076,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>798</v>
@@ -1082,10 +1087,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>406</v>
@@ -1096,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>126028</v>
@@ -1104,10 +1109,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <v>18695</v>
@@ -1118,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>22090</v>
@@ -1126,10 +1131,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <v>8389</v>
@@ -1140,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>11159</v>
@@ -1151,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>19076</v>
@@ -1162,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>20024</v>
@@ -1173,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>82348</v>
@@ -1181,10 +1186,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>6105</v>
@@ -1192,10 +1197,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>1917</v>
@@ -1203,10 +1208,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <v>996</v>
@@ -1214,10 +1219,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49">
         <v>378</v>
@@ -1228,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50">
         <v>189448</v>
@@ -1236,10 +1241,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>39924</v>
@@ -1250,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52">
         <v>34472</v>
@@ -1258,10 +1263,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53">
         <v>15604</v>
@@ -1272,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>14835</v>
@@ -1283,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <v>21643</v>
@@ -1294,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>21267</v>
@@ -1305,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>115315</v>
@@ -1313,10 +1318,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>13085</v>
@@ -1324,10 +1329,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>2946</v>
@@ -1335,10 +1340,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>1289</v>
@@ -1346,10 +1351,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -1360,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>47872</v>
@@ -1368,10 +1373,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>7651</v>
@@ -1382,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>10403</v>
@@ -1390,10 +1395,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>3816</v>
@@ -1404,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>3784</v>
@@ -1415,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>11404</v>
@@ -1426,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>14027</v>
@@ -1437,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>55029</v>
@@ -1445,10 +1450,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>2943</v>
@@ -1456,10 +1461,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>1134</v>
@@ -1467,10 +1472,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>438</v>
@@ -1478,10 +1483,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>220</v>
@@ -1492,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74">
         <v>64514</v>
@@ -1500,10 +1505,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>9929</v>
@@ -1514,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76">
         <v>11896</v>
@@ -1522,10 +1527,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77">
         <v>5351</v>
@@ -1536,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78">
         <v>5397</v>
@@ -1547,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79">
         <v>9416</v>
@@ -1558,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80">
         <v>10403</v>
@@ -1569,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81">
         <v>45999</v>
@@ -1577,10 +1582,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82">
         <v>4236</v>
@@ -1588,10 +1593,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83">
         <v>1270</v>
@@ -1599,10 +1604,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>592</v>
@@ -1610,10 +1615,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85">
         <v>260</v>
@@ -1624,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86">
         <v>65775</v>
@@ -1632,10 +1637,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>10163</v>
@@ -1646,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88">
         <v>12539</v>
@@ -1654,10 +1659,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89">
         <v>5236</v>
@@ -1668,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90">
         <v>4800</v>
@@ -1679,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91">
         <v>12027</v>
@@ -1690,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92">
         <v>10769</v>
@@ -1701,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93">
         <v>54706</v>
@@ -1709,10 +1714,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94">
         <v>3597</v>
@@ -1720,10 +1725,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95">
         <v>1294</v>
@@ -1731,10 +1736,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96">
         <v>603</v>
@@ -1742,10 +1747,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97">
         <v>173</v>
@@ -1756,7 +1761,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C98">
         <v>44473</v>
@@ -1764,10 +1769,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C99">
         <v>8632</v>
@@ -1778,7 +1783,7 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100">
         <v>10448</v>
@@ -1786,10 +1791,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <v>4256</v>
@@ -1800,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102">
         <v>3372</v>
@@ -1811,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C103">
         <v>9637</v>
@@ -1822,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C104">
         <v>9253</v>
@@ -1833,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105">
         <v>46676</v>
@@ -1841,10 +1846,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106">
         <v>3534</v>
@@ -1852,10 +1857,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107">
         <v>1055</v>
@@ -1863,10 +1868,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C108">
         <v>437</v>
@@ -1874,10 +1879,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C109">
         <v>167</v>
@@ -1887,4 +1892,109 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C70544-C276-42D9-B4CE-6DABB899C39A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dati/liste.xlsx
+++ b/dati/liste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A21D5-DBCF-4FD3-A373-A732762B9C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DABA07-06FA-4BCD-80FF-BCC14062FF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="51">
   <si>
     <t>SINISTRA</t>
   </si>
@@ -73,27 +73,6 @@
     <t>COLORE</t>
   </si>
   <si>
-    <t>#00FF00</t>
-  </si>
-  <si>
-    <t>#FFA500</t>
-  </si>
-  <si>
-    <t>#FFFF00</t>
-  </si>
-  <si>
-    <t>#2945e3</t>
-  </si>
-  <si>
-    <t>#00d5ff</t>
-  </si>
-  <si>
-    <t>#001f9c</t>
-  </si>
-  <si>
-    <t>#3086db</t>
-  </si>
-  <si>
     <t>STATI UNITI D'EUROPA</t>
   </si>
   <si>
@@ -112,15 +91,6 @@
     <t>SVP</t>
   </si>
   <si>
-    <t>PTD</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>PARMA</t>
   </si>
   <si>
@@ -154,18 +124,9 @@
     <t>ALLEANZA VERDI E SINISTRA</t>
   </si>
   <si>
-    <t>DE PASCALE</t>
-  </si>
-  <si>
-    <t>#DDA530</t>
-  </si>
-  <si>
     <t>ALLEANZA VERDI SINISTRA</t>
   </si>
   <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
     <t>SONDAGGIO</t>
   </si>
   <si>
@@ -175,7 +136,61 @@
     <t>PERCENTUALE</t>
   </si>
   <si>
-    <t>Nicola</t>
+    <t>CIVICI PER DE PASCALE</t>
+  </si>
+  <si>
+    <t>ITALIA VIVA</t>
+  </si>
+  <si>
+    <t>EMILIA-ROMAGNA FUTURA</t>
+  </si>
+  <si>
+    <t>ELENA UGOLINI PRESIDENTE</t>
+  </si>
+  <si>
+    <t>TERZA</t>
+  </si>
+  <si>
+    <t>ER PACE AMBIENTE LAVORO</t>
+  </si>
+  <si>
+    <t>#fc3726</t>
+  </si>
+  <si>
+    <t>#009c5f</t>
+  </si>
+  <si>
+    <t>#ffde5d</t>
+  </si>
+  <si>
+    <t>#1b574b</t>
+  </si>
+  <si>
+    <t>#205990</t>
+  </si>
+  <si>
+    <t>#fe85c8</t>
+  </si>
+  <si>
+    <t>#003d76</t>
+  </si>
+  <si>
+    <t>#ee7a2d</t>
+  </si>
+  <si>
+    <t>#017601</t>
+  </si>
+  <si>
+    <t>#0583d8</t>
+  </si>
+  <si>
+    <t>#b45859</t>
+  </si>
+  <si>
+    <t>astensione</t>
+  </si>
+  <si>
+    <t>BiDiMedia</t>
   </si>
 </sst>
 </file>
@@ -520,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -570,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,21 +607,21 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,50 +640,51 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -694,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>28024</v>
@@ -713,10 +729,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>6314</v>
@@ -727,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>7623</v>
@@ -735,10 +751,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>2979</v>
@@ -749,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>3655</v>
@@ -760,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>10522</v>
@@ -771,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>12080</v>
@@ -782,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>43152</v>
@@ -790,10 +806,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>2405</v>
@@ -801,10 +817,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>822</v>
@@ -812,10 +828,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>557</v>
@@ -823,10 +839,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>235</v>
@@ -837,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>54552</v>
@@ -845,10 +861,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>12792</v>
@@ -859,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>13200</v>
@@ -867,10 +883,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>6263</v>
@@ -881,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>8517</v>
@@ -892,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>13198</v>
@@ -903,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>16296</v>
@@ -914,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>55382</v>
@@ -922,10 +938,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>4650</v>
@@ -933,10 +949,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
         <v>1115</v>
@@ -944,10 +960,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>557</v>
@@ -955,10 +971,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>276</v>
@@ -969,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>95853</v>
@@ -977,10 +993,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>15476</v>
@@ -991,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>19612</v>
@@ -999,10 +1015,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
       </c>
       <c r="C29">
         <v>6804</v>
@@ -1013,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>7587</v>
@@ -1024,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>14256</v>
@@ -1035,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>14460</v>
@@ -1046,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>57374</v>
@@ -1054,10 +1070,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>5447</v>
@@ -1065,10 +1081,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>1693</v>
@@ -1076,10 +1092,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>798</v>
@@ -1087,10 +1103,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>406</v>
@@ -1101,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>126028</v>
@@ -1109,10 +1125,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>18695</v>
@@ -1123,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>22090</v>
@@ -1131,10 +1147,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>8389</v>
@@ -1145,7 +1161,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>11159</v>
@@ -1156,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>19076</v>
@@ -1167,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C44">
         <v>20024</v>
@@ -1178,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>82348</v>
@@ -1186,10 +1202,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>6105</v>
@@ -1197,10 +1213,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C47">
         <v>1917</v>
@@ -1208,10 +1224,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>996</v>
@@ -1219,10 +1235,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>378</v>
@@ -1233,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>189448</v>
@@ -1241,10 +1257,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>39924</v>
@@ -1255,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <v>34472</v>
@@ -1263,10 +1279,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>15604</v>
@@ -1277,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>14835</v>
@@ -1288,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>21643</v>
@@ -1299,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>21267</v>
@@ -1310,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>115315</v>
@@ -1318,10 +1334,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
         <v>20</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
       </c>
       <c r="C58">
         <v>13085</v>
@@ -1329,10 +1345,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>2946</v>
@@ -1340,10 +1356,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>1289</v>
@@ -1351,10 +1367,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -1365,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>47872</v>
@@ -1373,10 +1389,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>7651</v>
@@ -1387,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>10403</v>
@@ -1395,10 +1411,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>3816</v>
@@ -1409,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>3784</v>
@@ -1420,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>11404</v>
@@ -1431,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>14027</v>
@@ -1442,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>55029</v>
@@ -1450,10 +1466,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>2943</v>
@@ -1461,10 +1477,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
         <v>21</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
       </c>
       <c r="C71">
         <v>1134</v>
@@ -1472,10 +1488,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>438</v>
@@ -1483,10 +1499,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>220</v>
@@ -1497,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C74">
         <v>64514</v>
@@ -1505,10 +1521,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>9929</v>
@@ -1519,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>11896</v>
@@ -1527,10 +1543,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>5351</v>
@@ -1541,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>5397</v>
@@ -1552,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>9416</v>
@@ -1563,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C80">
         <v>10403</v>
@@ -1574,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C81">
         <v>45999</v>
@@ -1582,10 +1598,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>4236</v>
@@ -1593,10 +1609,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>1270</v>
@@ -1604,10 +1620,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
         <v>22</v>
-      </c>
-      <c r="B84" t="s">
-        <v>32</v>
       </c>
       <c r="C84">
         <v>592</v>
@@ -1615,10 +1631,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>260</v>
@@ -1629,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>65775</v>
@@ -1637,10 +1653,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C87">
         <v>10163</v>
@@ -1651,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>12539</v>
@@ -1659,10 +1675,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>5236</v>
@@ -1673,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C90">
         <v>4800</v>
@@ -1684,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C91">
         <v>12027</v>
@@ -1695,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <v>10769</v>
@@ -1706,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C93">
         <v>54706</v>
@@ -1714,10 +1730,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>3597</v>
@@ -1725,10 +1741,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C95">
         <v>1294</v>
@@ -1736,10 +1752,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C96">
         <v>603</v>
@@ -1747,10 +1763,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
         <v>23</v>
-      </c>
-      <c r="B97" t="s">
-        <v>33</v>
       </c>
       <c r="C97">
         <v>173</v>
@@ -1761,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C98">
         <v>44473</v>
@@ -1769,10 +1785,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C99">
         <v>8632</v>
@@ -1783,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C100">
         <v>10448</v>
@@ -1791,10 +1807,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C101">
         <v>4256</v>
@@ -1805,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C102">
         <v>3372</v>
@@ -1816,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C103">
         <v>9637</v>
@@ -1827,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C104">
         <v>9253</v>
@@ -1838,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C105">
         <v>46676</v>
@@ -1846,10 +1862,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C106">
         <v>3534</v>
@@ -1857,10 +1873,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C107">
         <v>1055</v>
@@ -1868,10 +1884,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C108">
         <v>437</v>
@@ -1879,10 +1895,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C109">
         <v>167</v>
@@ -1896,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C70544-C276-42D9-B4CE-6DABB899C39A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,86 +1928,185 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5">
-        <v>45539</v>
+        <v>45580</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7">
-        <v>0.34</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5">
-        <v>45539</v>
+        <v>45580</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7">
-        <v>0.04</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5">
-        <v>45539</v>
+        <v>45580</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>6.5000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
-        <v>45539</v>
+        <v>45580</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5">
-        <v>45539</v>
+        <v>45580</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
+        <f>1-AVERAGE(0.52,0.58)</f>
+        <v>0.44999999999999996</v>
       </c>
     </row>
   </sheetData>
